--- a/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
+++ b/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KoreaScoring\Desktop\국가기관\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEC267-999E-4071-A254-5376F64ED600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76612524-2217-4248-8947-7D2DAA4A54B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
+    <workbookView xWindow="6390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,35 +20,178 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+  <si>
+    <t>1010425563</t>
+  </si>
+  <si>
+    <t>1010487268</t>
+  </si>
+  <si>
+    <t>1010388483</t>
+  </si>
+  <si>
+    <t>1010498936</t>
+  </si>
+  <si>
+    <t>1010533492</t>
+  </si>
+  <si>
+    <t>1010535618</t>
+  </si>
+  <si>
+    <t>1010560738</t>
+  </si>
+  <si>
+    <t>1010575871</t>
+  </si>
   <si>
     <t>사업자등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>휴폐업일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>조회일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8997600079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-06-30) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-05-21) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-02-28) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-03-07) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-05-31) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-01-16) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-03-01) 입니다. 2016년 07월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-06-18) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-06-30) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-02-02) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-02-01) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 간이과세자, 폐업일자:2019-09-30) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-09-30) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010292807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2020-12-14) 입니다. 2013년 07월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010406872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2017-09-28) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010417419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 간이과세자, 폐업일자:2018-11-15) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010421228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-01-01) 입니다. 2013년 10월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010425563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2017-08-25) 입니다. 2013년 07월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010498936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2016-11-30) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010535618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2017-07-24) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010575871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업자 (부가가치세 일반과세자, 폐업일자:2020-11-30) 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,18 +201,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -115,21 +259,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,106 +607,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EB72AF-3230-45C7-A8D7-E45B8A00E28B}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7">
+        <v>43646</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>8997700057</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43606</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1010540144</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43159</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1010863774</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43166</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1011127195</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43251</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1011230533</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43116</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1011268892</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43160</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1011275340</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43269</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1011652137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43159</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1012151049</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43281</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1020361041</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43133</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1021551153</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43132</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1010269515</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43738</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>1010278881</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43738</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44179</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43006</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7">
+        <v>43419</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7">
+        <v>43466</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7">
+        <v>42972</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7">
+        <v>42704</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7">
+        <v>42940</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7">
+        <v>44165</v>
+      </c>
+      <c r="D23" s="7">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="D19" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
+++ b/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76612524-2217-4248-8947-7D2DAA4A54B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011B5E1-E635-4591-8CDA-06EC6564ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
-  <si>
-    <t>1010425563</t>
-  </si>
-  <si>
-    <t>1010487268</t>
-  </si>
-  <si>
-    <t>1010388483</t>
-  </si>
-  <si>
-    <t>1010498936</t>
-  </si>
-  <si>
-    <t>1010533492</t>
-  </si>
-  <si>
-    <t>1010535618</t>
-  </si>
-  <si>
-    <t>1010560738</t>
-  </si>
-  <si>
-    <t>1010575871</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>사업자등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,123 +44,93 @@
   </si>
   <si>
     <t>8997600079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-06-30) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-05-21) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-02-28) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-03-07) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-05-31) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-01-16) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-03-01) 입니다. 2016년 07월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-06-18) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-06-30) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-02-02) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-02-01) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 간이과세자, 폐업일자:2019-09-30) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-09-30) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010292807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2020-12-14) 입니다. 2013년 07월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010406872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2017-09-28) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010417419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 간이과세자, 폐업일자:2018-11-15) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010421228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-01-01) 입니다. 2013년 10월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010425563</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2017-08-25) 입니다. 2013년 07월 01일 간이과세자에서 일반과세자로 전환되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010498936</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2016-11-30) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010535618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2017-07-24) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1010575871</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2020-11-30) 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,7 +556,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,24 +570,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7">
         <v>43646</v>
@@ -655,7 +601,7 @@
         <v>8997700057</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7">
         <v>43606</v>
@@ -669,7 +615,7 @@
         <v>1010540144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7">
         <v>43159</v>
@@ -683,7 +629,7 @@
         <v>1010863774</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7">
         <v>43166</v>
@@ -697,7 +643,7 @@
         <v>1011127195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7">
         <v>43251</v>
@@ -711,7 +657,7 @@
         <v>1011230533</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>43116</v>
@@ -725,7 +671,7 @@
         <v>1011268892</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="7">
         <v>43160</v>
@@ -739,7 +685,7 @@
         <v>1011275340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7">
         <v>43269</v>
@@ -753,7 +699,7 @@
         <v>1011652137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7">
         <v>43159</v>
@@ -767,7 +713,7 @@
         <v>1012151049</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7">
         <v>43281</v>
@@ -781,7 +727,7 @@
         <v>1020361041</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7">
         <v>43133</v>
@@ -795,7 +741,7 @@
         <v>1021551153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>43132</v>
@@ -809,7 +755,7 @@
         <v>1010269515</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>43738</v>
@@ -823,7 +769,7 @@
         <v>1010278881</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7">
         <v>43738</v>
@@ -834,10 +780,10 @@
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7">
         <v>44179</v>
@@ -848,10 +794,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <v>43006</v>
@@ -862,10 +808,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>43419</v>
@@ -876,10 +822,10 @@
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
         <v>43466</v>
@@ -890,10 +836,10 @@
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
         <v>42972</v>
@@ -904,10 +850,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>42704</v>
@@ -918,10 +864,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7">
         <v>42940</v>
@@ -932,10 +878,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7">
         <v>44165</v>
@@ -945,65 +891,49 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>

--- a/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
+++ b/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011B5E1-E635-4591-8CDA-06EC6564ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98E52EF-DB7C-41A3-8E8C-20659BAF554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>사업자등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,9 @@
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-06-30) 입니다.</t>
   </si>
   <si>
+    <t>8997700057</t>
+  </si>
+  <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-05-21) 입니다.</t>
   </si>
   <si>
@@ -79,7 +82,13 @@
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2018-02-01) 입니다.</t>
   </si>
   <si>
+    <t>1010269515</t>
+  </si>
+  <si>
     <t>폐업자 (부가가치세 간이과세자, 폐업일자:2019-09-30) 입니다.</t>
+  </si>
+  <si>
+    <t>1010278881</t>
   </si>
   <si>
     <t>폐업자 (부가가치세 일반과세자, 폐업일자:2019-09-30) 입니다.</t>
@@ -205,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +246,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,12 +571,12 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
@@ -569,7 +584,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -597,11 +612,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>8997700057</v>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7">
         <v>43606</v>
@@ -615,7 +630,7 @@
         <v>1010540144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>43159</v>
@@ -629,7 +644,7 @@
         <v>1010863774</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7">
         <v>43166</v>
@@ -639,11 +654,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1011127195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>43251</v>
@@ -653,11 +668,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1011230533</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7">
         <v>43116</v>
@@ -667,11 +682,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1011268892</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>43160</v>
@@ -681,11 +696,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>1011275340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7">
         <v>43269</v>
@@ -695,11 +710,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1011652137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>43159</v>
@@ -709,11 +724,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>1012151049</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
         <v>43281</v>
@@ -723,11 +738,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1020361041</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7">
         <v>43133</v>
@@ -737,11 +752,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>1021551153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>43132</v>
@@ -751,11 +766,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>1010269515</v>
+      <c r="A14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>43738</v>
@@ -765,11 +780,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>1010278881</v>
+      <c r="A15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>43738</v>
@@ -780,10 +795,10 @@
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>44179</v>
@@ -794,10 +809,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7">
         <v>43006</v>
@@ -808,10 +823,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>43419</v>
@@ -822,10 +837,10 @@
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7">
         <v>43466</v>
@@ -836,10 +851,10 @@
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>42972</v>
@@ -850,10 +865,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7">
         <v>42704</v>
@@ -864,10 +879,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7">
         <v>42940</v>
@@ -878,10 +893,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7">
         <v>44165</v>

--- a/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
+++ b/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98E52EF-DB7C-41A3-8E8C-20659BAF554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA35142-AF9F-4EA6-9551-155E9356BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
+    <workbookView xWindow="7065" yWindow="2760" windowWidth="16995" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
         <v>43646</v>
       </c>
       <c r="D2" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>43606</v>
       </c>
       <c r="D3" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -636,7 +636,7 @@
         <v>43159</v>
       </c>
       <c r="D4" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>43166</v>
       </c>
       <c r="D5" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>43251</v>
       </c>
       <c r="D6" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>43116</v>
       </c>
       <c r="D7" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>43160</v>
       </c>
       <c r="D8" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>43269</v>
       </c>
       <c r="D9" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>43159</v>
       </c>
       <c r="D10" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>43281</v>
       </c>
       <c r="D11" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>43133</v>
       </c>
       <c r="D12" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>43132</v>
       </c>
       <c r="D13" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>43738</v>
       </c>
       <c r="D14" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>43738</v>
       </c>
       <c r="D15" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>44179</v>
       </c>
       <c r="D16" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>43006</v>
       </c>
       <c r="D17" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>43419</v>
       </c>
       <c r="D18" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>43466</v>
       </c>
       <c r="D19" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>42972</v>
       </c>
       <c r="D20" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>42704</v>
       </c>
       <c r="D21" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>42940</v>
       </c>
       <c r="D22" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>44165</v>
       </c>
       <c r="D23" s="7">
-        <v>45620</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">

--- a/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
+++ b/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA35142-AF9F-4EA6-9551-155E9356BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD7080-C480-49EF-A7A1-AA81122CC4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="2760" windowWidth="16995" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
         <v>43646</v>
       </c>
       <c r="D2" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>43606</v>
       </c>
       <c r="D3" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -636,7 +636,7 @@
         <v>43159</v>
       </c>
       <c r="D4" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>43166</v>
       </c>
       <c r="D5" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>43251</v>
       </c>
       <c r="D6" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>43116</v>
       </c>
       <c r="D7" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>43160</v>
       </c>
       <c r="D8" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>43269</v>
       </c>
       <c r="D9" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>43159</v>
       </c>
       <c r="D10" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>43281</v>
       </c>
       <c r="D11" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>43133</v>
       </c>
       <c r="D12" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>43132</v>
       </c>
       <c r="D13" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>43738</v>
       </c>
       <c r="D14" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>43738</v>
       </c>
       <c r="D15" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>44179</v>
       </c>
       <c r="D16" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>43006</v>
       </c>
       <c r="D17" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>43419</v>
       </c>
       <c r="D18" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>43466</v>
       </c>
       <c r="D19" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>42972</v>
       </c>
       <c r="D20" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>42704</v>
       </c>
       <c r="D21" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>42940</v>
       </c>
       <c r="D22" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>44165</v>
       </c>
       <c r="D23" s="7">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">

--- a/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
+++ b/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD7080-C480-49EF-A7A1-AA81122CC4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8DCD2F-3381-4544-B389-78E874B2E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
+++ b/B_사업자_휴폐업_조회/Result/폐업자명단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8DCD2F-3381-4544-B389-78E874B2E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C507270C-9801-4F4B-99BF-CE8696204A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
         <v>43646</v>
       </c>
       <c r="D2" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>43606</v>
       </c>
       <c r="D3" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -636,7 +636,7 @@
         <v>43159</v>
       </c>
       <c r="D4" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>43166</v>
       </c>
       <c r="D5" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>43251</v>
       </c>
       <c r="D6" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>43116</v>
       </c>
       <c r="D7" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>43160</v>
       </c>
       <c r="D8" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>43269</v>
       </c>
       <c r="D9" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>43159</v>
       </c>
       <c r="D10" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>43281</v>
       </c>
       <c r="D11" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>43133</v>
       </c>
       <c r="D12" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>43132</v>
       </c>
       <c r="D13" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>43738</v>
       </c>
       <c r="D14" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>43738</v>
       </c>
       <c r="D15" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>44179</v>
       </c>
       <c r="D16" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>43006</v>
       </c>
       <c r="D17" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>43419</v>
       </c>
       <c r="D18" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>43466</v>
       </c>
       <c r="D19" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>42972</v>
       </c>
       <c r="D20" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>42704</v>
       </c>
       <c r="D21" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>42940</v>
       </c>
       <c r="D22" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>44165</v>
       </c>
       <c r="D23" s="7">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
